--- a/VacumCleanerPerformanceMeasuring/Results.xlsx
+++ b/VacumCleanerPerformanceMeasuring/Results.xlsx
@@ -460,7 +460,7 @@
         <v>259</v>
       </c>
       <c r="H3">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
